--- a/개발일지.xlsx
+++ b/개발일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP_Agario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751E34A-2B78-4F4F-B4E2-9E9D0CD4DDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DCC99-8477-48BB-91DC-A5FE95F6A3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용방법" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,12 +128,39 @@
     <t xml:space="preserve">Alt + Enter </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>클라이언트 winapi 로 제작  
+- class 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 
+-	draw 함수들 정의(각 오브젝트별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트
+-	델타 타임을 이용한 frame 별로 업데이트 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트
+-	Feed 시간마다 생성되도록 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행하지 않음</t>
+  </si>
+  <si>
+    <t>진행하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +215,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -268,14 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,22 +331,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,48 +667,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -659,37 +723,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="39" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>44141</v>
+    <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
+        <v>44139</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="17">
+        <v>44140</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="17">
+        <v>44142</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="17">
+        <v>44143</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -716,18 +819,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -752,18 +855,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/개발일지.xlsx
+++ b/개발일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP_Agario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP\NGP_Agario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DCC99-8477-48BB-91DC-A5FE95F6A3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581996E-EF46-463E-A9D3-9385B0E5A88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용방법" sheetId="4" r:id="rId1"/>
@@ -18,17 +18,26 @@
     <sheet name="이규민" sheetId="2" r:id="rId3"/>
     <sheet name="조영환" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,15 +153,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>진행하지 않음</t>
+  </si>
+  <si>
+    <t>진행하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>클라이언트
--	Feed 시간마다 생성되도록 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행하지 않음</t>
-  </si>
-  <si>
-    <t>진행하지 않음</t>
+충돌체크 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw 함수들 정의(각 오브젝트별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트
+- Player 키보드로 이동과 feed 와 충돌체크 부분 map update 에 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버
+-	클라이언트에 있는 map update 부분 모든 게임 플레이요소 가져오고 
+클라이언트 내에서는 draw 와 class 들을 제외한 나머지 요소들 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>클라이언트
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	Feed 시간마다 생성되도록 제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 한 Feed 가 없어질때 생성되도록 변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트
+-델타 타임을 이용한 frame 별로 업데이트 함수 구현
+- Player 키보드로 이동과 feed 와 충돌체크 부분 map update 에 구현
+- 충돌시 점수와 플레이어의 사이즈 커지는 부분 구현++
+- 한 Feed 가 없어질때 생성되도록 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 winapi 로 제작
+- class 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -311,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,35 +420,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,20 +742,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -688,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -696,7 +779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -704,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -723,77 +806,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="39" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="16"/>
+    <col min="1" max="1" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="62.375" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
         <v>44139</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>44140</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>44142</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>44143</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>44144</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
-        <v>44140</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
-        <v>44142</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
-        <v>44143</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>44145</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>44149</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -810,15 +924,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -829,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
   </sheetData>
@@ -846,15 +960,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -865,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
   </sheetData>

--- a/개발일지.xlsx
+++ b/개발일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP\NGP_Agario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP_Agario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581996E-EF46-463E-A9D3-9385B0E5A88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A272C7C-2DC4-4511-9BD5-2D711F9A8E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용방법" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,19 @@
   <si>
     <t>클라이언트 winapi 로 제작
 - class 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버
+-	클라이언트와 서버 쓰레드 생성으로 여러 클라이언트들과 연결하고 서버 데이터 전송 부분 고정길이 전송으로 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이예림
+클라이언트
+-	클라이언트에 input 전송부분 구현
+서버
+-	서버에서 클라이언트의 input 부분이 잘 적용되는지 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,32 +442,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,20 +758,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="1.8984375" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -763,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -771,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -779,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -787,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -806,69 +822,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="62.375" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="11.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="62.3984375" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
         <v>44139</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
         <v>44140</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
         <v>44142</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+    <row r="5" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
         <v>44143</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -878,19 +894,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+    <row r="6" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
         <v>44144</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+    <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
         <v>44145</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -900,14 +916,80 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+    <row r="8" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
         <v>44149</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>44160</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="87" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>44161</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -924,15 +1006,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
     </row>
   </sheetData>
@@ -960,15 +1042,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
     </row>
   </sheetData>

--- a/개발일지.xlsx
+++ b/개발일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGP_Agario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A272C7C-2DC4-4511-9BD5-2D711F9A8E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C267AB-D7C2-4198-BB36-0A460FAD1764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,14 @@
 -	클라이언트에 input 전송부분 구현
 서버
 -	서버에서 클라이언트의 input 부분이 잘 적용되는지 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map 전송및 받기 한 클라에서만 우선 작동되도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 쓰레드 지원 - 여러 클라이언트 접속가능하도록 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,14 +471,14 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,10 +774,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
@@ -822,13 +830,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -965,30 +973,62 @@
         <v>44157</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>44158</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>44159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>44160</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="87" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="87" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>44161</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
+        <v>44164</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="87" x14ac:dyDescent="0.4">
+      <c r="A22" s="18">
+        <v>44165</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="18">
+        <v>44166</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
+        <v>44167</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
